--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Il16-Grin2d.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Il16-Grin2d.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T37"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.528209</v>
+        <v>3.323836333333334</v>
       </c>
       <c r="H2">
-        <v>7.584626999999999</v>
+        <v>9.971509000000001</v>
       </c>
       <c r="I2">
-        <v>0.07797459996163481</v>
+        <v>0.1301205485574112</v>
       </c>
       <c r="J2">
-        <v>0.07797459996163481</v>
+        <v>0.1301205485574111</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.2136173333333334</v>
+        <v>0.129309</v>
       </c>
       <c r="N2">
-        <v>0.6408520000000001</v>
+        <v>0.387927</v>
       </c>
       <c r="O2">
-        <v>0.1031964470323767</v>
+        <v>0.07957973174122036</v>
       </c>
       <c r="P2">
-        <v>0.1031964470323767</v>
+        <v>0.07957973174122038</v>
       </c>
       <c r="Q2">
-        <v>0.5400692646893334</v>
+        <v>0.429801952427</v>
       </c>
       <c r="R2">
-        <v>4.860623382204</v>
+        <v>3.868217571843</v>
       </c>
       <c r="S2">
-        <v>0.008046701674811611</v>
+        <v>0.01035495834821922</v>
       </c>
       <c r="T2">
-        <v>0.008046701674811609</v>
+        <v>0.01035495834821922</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.528209</v>
+        <v>3.323836333333334</v>
       </c>
       <c r="H3">
-        <v>7.584626999999999</v>
+        <v>9.971509000000001</v>
       </c>
       <c r="I3">
-        <v>0.07797459996163481</v>
+        <v>0.1301205485574112</v>
       </c>
       <c r="J3">
-        <v>0.07797459996163481</v>
+        <v>0.1301205485574111</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>3.99459</v>
       </c>
       <c r="O3">
-        <v>0.6432491360736359</v>
+        <v>0.8194541772451042</v>
       </c>
       <c r="P3">
-        <v>0.6432491360736358</v>
+        <v>0.8194541772451043</v>
       </c>
       <c r="Q3">
-        <v>3.36638612977</v>
+        <v>4.425787792923335</v>
       </c>
       <c r="R3">
-        <v>30.29747516793</v>
+        <v>39.83209013631001</v>
       </c>
       <c r="S3">
-        <v>0.05015709406100895</v>
+        <v>0.106627827060795</v>
       </c>
       <c r="T3">
-        <v>0.05015709406100894</v>
+        <v>0.106627827060795</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,7 +658,7 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -667,46 +667,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.528209</v>
+        <v>3.323836333333334</v>
       </c>
       <c r="H4">
-        <v>7.584626999999999</v>
+        <v>9.971509000000001</v>
       </c>
       <c r="I4">
-        <v>0.07797459996163481</v>
+        <v>0.1301205485574112</v>
       </c>
       <c r="J4">
-        <v>0.07797459996163481</v>
+        <v>0.1301205485574111</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.01706533333333333</v>
+        <v>0.1409186666666667</v>
       </c>
       <c r="N4">
-        <v>0.051196</v>
+        <v>0.422756</v>
       </c>
       <c r="O4">
-        <v>0.008244095832219541</v>
+        <v>0.0867245875435104</v>
       </c>
       <c r="P4">
-        <v>0.00824409583221954</v>
+        <v>0.08672458754351042</v>
       </c>
       <c r="Q4">
-        <v>0.04314472932133333</v>
+        <v>0.4683905843115556</v>
       </c>
       <c r="R4">
-        <v>0.388302563892</v>
+        <v>4.215515258804</v>
       </c>
       <c r="S4">
-        <v>0.0006428300745626995</v>
+        <v>0.0112846509045768</v>
       </c>
       <c r="T4">
-        <v>0.0006428300745626994</v>
+        <v>0.0112846509045768</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,7 +720,7 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -729,46 +729,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.528209</v>
+        <v>3.323836333333334</v>
       </c>
       <c r="H5">
-        <v>7.584626999999999</v>
+        <v>9.971509000000001</v>
       </c>
       <c r="I5">
-        <v>0.07797459996163481</v>
+        <v>0.1301205485574112</v>
       </c>
       <c r="J5">
-        <v>0.07797459996163481</v>
+        <v>0.1301205485574111</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.410595</v>
+        <v>0.01634</v>
       </c>
       <c r="N5">
-        <v>1.231785</v>
+        <v>0.04902</v>
       </c>
       <c r="O5">
-        <v>0.1983544336411155</v>
+        <v>0.01005601169796024</v>
       </c>
       <c r="P5">
-        <v>0.1983544336411154</v>
+        <v>0.01005601169796024</v>
       </c>
       <c r="Q5">
-        <v>1.038069974355</v>
+        <v>0.05431148568666667</v>
       </c>
       <c r="R5">
-        <v>9.342629769194998</v>
+        <v>0.4888033711800001</v>
       </c>
       <c r="S5">
-        <v>0.01546660761378262</v>
+        <v>0.00130849375843833</v>
       </c>
       <c r="T5">
-        <v>0.01546660761378261</v>
+        <v>0.00130849375843833</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,7 +782,7 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>2.528209</v>
+        <v>3.323836333333334</v>
       </c>
       <c r="H6">
-        <v>7.584626999999999</v>
+        <v>9.971509000000001</v>
       </c>
       <c r="I6">
-        <v>0.07797459996163481</v>
+        <v>0.1301205485574112</v>
       </c>
       <c r="J6">
-        <v>0.07797459996163481</v>
+        <v>0.1301205485574111</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -809,43 +809,43 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.02875133333333333</v>
+        <v>0.006801000000000001</v>
       </c>
       <c r="N6">
-        <v>0.086254</v>
+        <v>0.020403</v>
       </c>
       <c r="O6">
-        <v>0.01388948827862068</v>
+        <v>0.004185491772204872</v>
       </c>
       <c r="P6">
-        <v>0.01388948827862068</v>
+        <v>0.004185491772204872</v>
       </c>
       <c r="Q6">
-        <v>0.07268937969533333</v>
+        <v>0.022605410903</v>
       </c>
       <c r="R6">
-        <v>0.6542044172579999</v>
+        <v>0.203448698127</v>
       </c>
       <c r="S6">
-        <v>0.001083027292197263</v>
+        <v>0.0005446184853818291</v>
       </c>
       <c r="T6">
-        <v>0.001083027292197263</v>
+        <v>0.000544618485381829</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
         <v>20</v>
       </c>
-      <c r="B7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C7" t="s">
-        <v>27</v>
-      </c>
-      <c r="D7" t="s">
-        <v>25</v>
-      </c>
       <c r="E7">
         <v>3</v>
       </c>
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>2.528209</v>
+        <v>1.344088666666667</v>
       </c>
       <c r="H7">
-        <v>7.584626999999999</v>
+        <v>4.032266</v>
       </c>
       <c r="I7">
-        <v>0.07797459996163481</v>
+        <v>0.05261798027253429</v>
       </c>
       <c r="J7">
-        <v>0.07797459996163481</v>
+        <v>0.05261798027253427</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.06844766666666667</v>
+        <v>0.129309</v>
       </c>
       <c r="N7">
-        <v>0.205343</v>
+        <v>0.387927</v>
       </c>
       <c r="O7">
-        <v>0.03306639914203175</v>
+        <v>0.07957973174122036</v>
       </c>
       <c r="P7">
-        <v>0.03306639914203174</v>
+        <v>0.07957973174122038</v>
       </c>
       <c r="Q7">
-        <v>0.1730500068956667</v>
+        <v>0.173802761398</v>
       </c>
       <c r="R7">
-        <v>1.557450062061</v>
+        <v>1.564224852582</v>
       </c>
       <c r="S7">
-        <v>0.00257833924527167</v>
+        <v>0.004187324754853104</v>
       </c>
       <c r="T7">
-        <v>0.00257833924527167</v>
+        <v>0.004187324754853104</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,7 +906,7 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -921,10 +921,10 @@
         <v>4.032266</v>
       </c>
       <c r="I8">
-        <v>0.04145415829794943</v>
+        <v>0.05261798027253429</v>
       </c>
       <c r="J8">
-        <v>0.04145415829794944</v>
+        <v>0.05261798027253427</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.2136173333333334</v>
+        <v>1.33153</v>
       </c>
       <c r="N8">
-        <v>0.6408520000000001</v>
+        <v>3.99459</v>
       </c>
       <c r="O8">
-        <v>0.1031964470323767</v>
+        <v>0.8194541772451042</v>
       </c>
       <c r="P8">
-        <v>0.1031964470323767</v>
+        <v>0.8194541772451043</v>
       </c>
       <c r="Q8">
-        <v>0.2871206367368889</v>
+        <v>1.789694382326667</v>
       </c>
       <c r="R8">
-        <v>2.584085730632</v>
+        <v>16.10724944094</v>
       </c>
       <c r="S8">
-        <v>0.004277921851066099</v>
+        <v>0.04311802373252871</v>
       </c>
       <c r="T8">
-        <v>0.004277921851066099</v>
+        <v>0.0431180237325287</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,7 +968,7 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -983,10 +983,10 @@
         <v>4.032266</v>
       </c>
       <c r="I9">
-        <v>0.04145415829794943</v>
+        <v>0.05261798027253429</v>
       </c>
       <c r="J9">
-        <v>0.04145415829794944</v>
+        <v>0.05261798027253427</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -995,28 +995,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>1.33153</v>
+        <v>0.1409186666666667</v>
       </c>
       <c r="N9">
-        <v>3.99459</v>
+        <v>0.422756</v>
       </c>
       <c r="O9">
-        <v>0.6432491360736359</v>
+        <v>0.0867245875435104</v>
       </c>
       <c r="P9">
-        <v>0.6432491360736358</v>
+        <v>0.08672458754351042</v>
       </c>
       <c r="Q9">
-        <v>1.789694382326667</v>
+        <v>0.1894071827884445</v>
       </c>
       <c r="R9">
-        <v>16.10724944094</v>
+        <v>1.704664645096</v>
       </c>
       <c r="S9">
-        <v>0.02666535151181572</v>
+        <v>0.004563272636508102</v>
       </c>
       <c r="T9">
-        <v>0.02666535151181572</v>
+        <v>0.004563272636508103</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,7 +1030,7 @@
         <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1045,10 +1045,10 @@
         <v>4.032266</v>
       </c>
       <c r="I10">
-        <v>0.04145415829794943</v>
+        <v>0.05261798027253429</v>
       </c>
       <c r="J10">
-        <v>0.04145415829794944</v>
+        <v>0.05261798027253427</v>
       </c>
       <c r="K10">
         <v>1</v>
@@ -1057,28 +1057,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>0.01706533333333333</v>
+        <v>0.01634</v>
       </c>
       <c r="N10">
-        <v>0.051196</v>
+        <v>0.04902</v>
       </c>
       <c r="O10">
-        <v>0.008244095832219541</v>
+        <v>0.01005601169796024</v>
       </c>
       <c r="P10">
-        <v>0.00824409583221954</v>
+        <v>0.01005601169796024</v>
       </c>
       <c r="Q10">
-        <v>0.02293732112622222</v>
+        <v>0.02196240881333333</v>
       </c>
       <c r="R10">
-        <v>0.206435890136</v>
+        <v>0.19766167932</v>
       </c>
       <c r="S10">
-        <v>0.0003417520536522941</v>
+        <v>0.0005291270251436461</v>
       </c>
       <c r="T10">
-        <v>0.0003417520536522941</v>
+        <v>0.000529127025143646</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,7 +1092,7 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1107,45 +1107,45 @@
         <v>4.032266</v>
       </c>
       <c r="I11">
-        <v>0.04145415829794943</v>
+        <v>0.05261798027253429</v>
       </c>
       <c r="J11">
-        <v>0.04145415829794944</v>
+        <v>0.05261798027253427</v>
       </c>
       <c r="K11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M11">
-        <v>0.410595</v>
+        <v>0.006801000000000001</v>
       </c>
       <c r="N11">
-        <v>1.231785</v>
+        <v>0.020403</v>
       </c>
       <c r="O11">
-        <v>0.1983544336411155</v>
+        <v>0.004185491772204872</v>
       </c>
       <c r="P11">
-        <v>0.1983544336411154</v>
+        <v>0.004185491772204872</v>
       </c>
       <c r="Q11">
-        <v>0.5518760860900001</v>
+        <v>0.009141147022000001</v>
       </c>
       <c r="R11">
-        <v>4.96688477481</v>
+        <v>0.082270323198</v>
       </c>
       <c r="S11">
-        <v>0.008222616091258909</v>
+        <v>0.0002202321235007306</v>
       </c>
       <c r="T11">
-        <v>0.008222616091258907</v>
+        <v>0.0002202321235007305</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -1154,7 +1154,7 @@
         <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1163,61 +1163,61 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.344088666666667</v>
+        <v>2.591152</v>
       </c>
       <c r="H12">
-        <v>4.032266</v>
+        <v>7.773455999999999</v>
       </c>
       <c r="I12">
-        <v>0.04145415829794943</v>
+        <v>0.1014376418761593</v>
       </c>
       <c r="J12">
-        <v>0.04145415829794944</v>
+        <v>0.1014376418761593</v>
       </c>
       <c r="K12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L12">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M12">
-        <v>0.02875133333333333</v>
+        <v>0.129309</v>
       </c>
       <c r="N12">
-        <v>0.086254</v>
+        <v>0.387927</v>
       </c>
       <c r="O12">
-        <v>0.01388948827862068</v>
+        <v>0.07957973174122036</v>
       </c>
       <c r="P12">
-        <v>0.01388948827862068</v>
+        <v>0.07957973174122038</v>
       </c>
       <c r="Q12">
-        <v>0.03864434128488889</v>
+        <v>0.3350592739679999</v>
       </c>
       <c r="R12">
-        <v>0.347799071564</v>
+        <v>3.015533465712</v>
       </c>
       <c r="S12">
-        <v>0.000575777045779455</v>
+        <v>0.008072380328966735</v>
       </c>
       <c r="T12">
-        <v>0.0005757770457794549</v>
+        <v>0.008072380328966736</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
         <v>21</v>
       </c>
-      <c r="B13" t="s">
-        <v>26</v>
-      </c>
-      <c r="C13" t="s">
-        <v>27</v>
-      </c>
-      <c r="D13" t="s">
-        <v>25</v>
-      </c>
       <c r="E13">
         <v>3</v>
       </c>
@@ -1225,16 +1225,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.344088666666667</v>
+        <v>2.591152</v>
       </c>
       <c r="H13">
-        <v>4.032266</v>
+        <v>7.773455999999999</v>
       </c>
       <c r="I13">
-        <v>0.04145415829794943</v>
+        <v>0.1014376418761593</v>
       </c>
       <c r="J13">
-        <v>0.04145415829794944</v>
+        <v>0.1014376418761593</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.06844766666666667</v>
+        <v>1.33153</v>
       </c>
       <c r="N13">
-        <v>0.205343</v>
+        <v>3.99459</v>
       </c>
       <c r="O13">
-        <v>0.03306639914203175</v>
+        <v>0.8194541772451042</v>
       </c>
       <c r="P13">
-        <v>0.03306639914203174</v>
+        <v>0.8194541772451043</v>
       </c>
       <c r="Q13">
-        <v>0.09199973302644446</v>
+        <v>3.45019662256</v>
       </c>
       <c r="R13">
-        <v>0.8279975972379999</v>
+        <v>31.05176960304</v>
       </c>
       <c r="S13">
-        <v>0.001370739744376963</v>
+        <v>0.08312349936531162</v>
       </c>
       <c r="T13">
-        <v>0.001370739744376963</v>
+        <v>0.08312349936531163</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,7 +1278,7 @@
         <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E14">
         <v>3</v>
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>5.501111666666667</v>
+        <v>2.591152</v>
       </c>
       <c r="H14">
-        <v>16.503335</v>
+        <v>7.773455999999999</v>
       </c>
       <c r="I14">
-        <v>0.1696643677609784</v>
+        <v>0.1014376418761593</v>
       </c>
       <c r="J14">
-        <v>0.1696643677609784</v>
+        <v>0.1014376418761593</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.2136173333333334</v>
+        <v>0.1409186666666667</v>
       </c>
       <c r="N14">
-        <v>0.6408520000000001</v>
+        <v>0.422756</v>
       </c>
       <c r="O14">
-        <v>0.1031964470323767</v>
+        <v>0.0867245875435104</v>
       </c>
       <c r="P14">
-        <v>0.1031964470323767</v>
+        <v>0.08672458754351042</v>
       </c>
       <c r="Q14">
-        <v>1.175132804602222</v>
+        <v>0.3651416849706666</v>
       </c>
       <c r="R14">
-        <v>10.57619524142</v>
+        <v>3.286275164736</v>
       </c>
       <c r="S14">
-        <v>0.01750875994092749</v>
+        <v>0.00879713765309623</v>
       </c>
       <c r="T14">
-        <v>0.01750875994092749</v>
+        <v>0.008797137653096233</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,7 +1340,7 @@
         <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E15">
         <v>3</v>
@@ -1349,46 +1349,46 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>5.501111666666667</v>
+        <v>2.591152</v>
       </c>
       <c r="H15">
-        <v>16.503335</v>
+        <v>7.773455999999999</v>
       </c>
       <c r="I15">
-        <v>0.1696643677609784</v>
+        <v>0.1014376418761593</v>
       </c>
       <c r="J15">
-        <v>0.1696643677609784</v>
+        <v>0.1014376418761593</v>
       </c>
       <c r="K15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M15">
-        <v>1.33153</v>
+        <v>0.01634</v>
       </c>
       <c r="N15">
-        <v>3.99459</v>
+        <v>0.04902</v>
       </c>
       <c r="O15">
-        <v>0.6432491360736359</v>
+        <v>0.01005601169796024</v>
       </c>
       <c r="P15">
-        <v>0.6432491360736358</v>
+        <v>0.01005601169796024</v>
       </c>
       <c r="Q15">
-        <v>7.324895217516668</v>
+        <v>0.04233942367999999</v>
       </c>
       <c r="R15">
-        <v>65.92405695765</v>
+        <v>0.38105481312</v>
       </c>
       <c r="S15">
-        <v>0.109136457984729</v>
+        <v>0.001020058113320159</v>
       </c>
       <c r="T15">
-        <v>0.109136457984729</v>
+        <v>0.001020058113320159</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,7 +1402,7 @@
         <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E16">
         <v>3</v>
@@ -1411,51 +1411,51 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>5.501111666666667</v>
+        <v>2.591152</v>
       </c>
       <c r="H16">
-        <v>16.503335</v>
+        <v>7.773455999999999</v>
       </c>
       <c r="I16">
-        <v>0.1696643677609784</v>
+        <v>0.1014376418761593</v>
       </c>
       <c r="J16">
-        <v>0.1696643677609784</v>
+        <v>0.1014376418761593</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M16">
-        <v>0.01706533333333333</v>
+        <v>0.006801000000000001</v>
       </c>
       <c r="N16">
-        <v>0.051196</v>
+        <v>0.020403</v>
       </c>
       <c r="O16">
-        <v>0.008244095832219541</v>
+        <v>0.004185491772204872</v>
       </c>
       <c r="P16">
-        <v>0.00824409583221954</v>
+        <v>0.004185491772204872</v>
       </c>
       <c r="Q16">
-        <v>0.09387830429555555</v>
+        <v>0.017622424752</v>
       </c>
       <c r="R16">
-        <v>0.8449047386599999</v>
+        <v>0.158601822768</v>
       </c>
       <c r="S16">
-        <v>0.001398729307134446</v>
+        <v>0.000424566415464529</v>
       </c>
       <c r="T16">
-        <v>0.001398729307134446</v>
+        <v>0.000424566415464529</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B17" t="s">
         <v>26</v>
@@ -1464,25 +1464,25 @@
         <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>5.501111666666667</v>
+        <v>0.128738</v>
       </c>
       <c r="H17">
-        <v>16.503335</v>
+        <v>0.386214</v>
       </c>
       <c r="I17">
-        <v>0.1696643677609784</v>
+        <v>0.005039796638658401</v>
       </c>
       <c r="J17">
-        <v>0.1696643677609784</v>
+        <v>0.005039796638658401</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,33 +1491,33 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.410595</v>
+        <v>0.129309</v>
       </c>
       <c r="N17">
-        <v>1.231785</v>
+        <v>0.387927</v>
       </c>
       <c r="O17">
-        <v>0.1983544336411155</v>
+        <v>0.07957973174122036</v>
       </c>
       <c r="P17">
-        <v>0.1983544336411154</v>
+        <v>0.07957973174122038</v>
       </c>
       <c r="Q17">
-        <v>2.258728944775</v>
+        <v>0.01664698204199999</v>
       </c>
       <c r="R17">
-        <v>20.328560502975</v>
+        <v>0.149822838378</v>
       </c>
       <c r="S17">
-        <v>0.03365367957630681</v>
+        <v>0.0004010656645347396</v>
       </c>
       <c r="T17">
-        <v>0.0336536795763068</v>
+        <v>0.0004010656645347397</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B18" t="s">
         <v>26</v>
@@ -1526,60 +1526,60 @@
         <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G18">
-        <v>5.501111666666667</v>
+        <v>0.128738</v>
       </c>
       <c r="H18">
-        <v>16.503335</v>
+        <v>0.386214</v>
       </c>
       <c r="I18">
-        <v>0.1696643677609784</v>
+        <v>0.005039796638658401</v>
       </c>
       <c r="J18">
-        <v>0.1696643677609784</v>
+        <v>0.005039796638658401</v>
       </c>
       <c r="K18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L18">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M18">
-        <v>0.02875133333333333</v>
+        <v>1.33153</v>
       </c>
       <c r="N18">
-        <v>0.086254</v>
+        <v>3.99459</v>
       </c>
       <c r="O18">
-        <v>0.01388948827862068</v>
+        <v>0.8194541772451042</v>
       </c>
       <c r="P18">
-        <v>0.01388948827862068</v>
+        <v>0.8194541772451043</v>
       </c>
       <c r="Q18">
-        <v>0.1581642952322222</v>
+        <v>0.17141850914</v>
       </c>
       <c r="R18">
-        <v>1.42347865709</v>
+        <v>1.54276658226</v>
       </c>
       <c r="S18">
-        <v>0.002356551247315698</v>
+        <v>0.004129882408014461</v>
       </c>
       <c r="T18">
-        <v>0.002356551247315698</v>
+        <v>0.004129882408014461</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B19" t="s">
         <v>26</v>
@@ -1588,25 +1588,25 @@
         <v>27</v>
       </c>
       <c r="D19" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G19">
-        <v>5.501111666666667</v>
+        <v>0.128738</v>
       </c>
       <c r="H19">
-        <v>16.503335</v>
+        <v>0.386214</v>
       </c>
       <c r="I19">
-        <v>0.1696643677609784</v>
+        <v>0.005039796638658401</v>
       </c>
       <c r="J19">
-        <v>0.1696643677609784</v>
+        <v>0.005039796638658401</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.06844766666666667</v>
+        <v>0.1409186666666667</v>
       </c>
       <c r="N19">
-        <v>0.205343</v>
+        <v>0.422756</v>
       </c>
       <c r="O19">
-        <v>0.03306639914203175</v>
+        <v>0.0867245875435104</v>
       </c>
       <c r="P19">
-        <v>0.03306639914203174</v>
+        <v>0.08672458754351042</v>
       </c>
       <c r="Q19">
-        <v>0.3765382576561112</v>
+        <v>0.01814158730933333</v>
       </c>
       <c r="R19">
-        <v>3.388844318905</v>
+        <v>0.163274285784</v>
       </c>
       <c r="S19">
-        <v>0.005610189704564976</v>
+        <v>0.0004370742847908199</v>
       </c>
       <c r="T19">
-        <v>0.005610189704564976</v>
+        <v>0.00043707428479082</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,55 +1650,55 @@
         <v>27</v>
       </c>
       <c r="D20" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E20">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G20">
-        <v>0.321922</v>
+        <v>0.128738</v>
       </c>
       <c r="H20">
-        <v>0.9657660000000001</v>
+        <v>0.386214</v>
       </c>
       <c r="I20">
-        <v>0.009928664587796896</v>
+        <v>0.005039796638658401</v>
       </c>
       <c r="J20">
-        <v>0.009928664587796898</v>
+        <v>0.005039796638658401</v>
       </c>
       <c r="K20">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L20">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M20">
-        <v>0.2136173333333334</v>
+        <v>0.01634</v>
       </c>
       <c r="N20">
-        <v>0.6408520000000001</v>
+        <v>0.04902</v>
       </c>
       <c r="O20">
-        <v>0.1031964470323767</v>
+        <v>0.01005601169796024</v>
       </c>
       <c r="P20">
-        <v>0.1031964470323767</v>
+        <v>0.01005601169796024</v>
       </c>
       <c r="Q20">
-        <v>0.06876811918133335</v>
+        <v>0.00210357892</v>
       </c>
       <c r="R20">
-        <v>0.6189130726320001</v>
+        <v>0.01893221028</v>
       </c>
       <c r="S20">
-        <v>0.001024602909236817</v>
+        <v>5.068025395368958E-05</v>
       </c>
       <c r="T20">
-        <v>0.001024602909236817</v>
+        <v>5.068025395368959E-05</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,60 +1712,60 @@
         <v>27</v>
       </c>
       <c r="D21" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E21">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F21">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G21">
-        <v>0.321922</v>
+        <v>0.128738</v>
       </c>
       <c r="H21">
-        <v>0.9657660000000001</v>
+        <v>0.386214</v>
       </c>
       <c r="I21">
-        <v>0.009928664587796896</v>
+        <v>0.005039796638658401</v>
       </c>
       <c r="J21">
-        <v>0.009928664587796898</v>
+        <v>0.005039796638658401</v>
       </c>
       <c r="K21">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L21">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M21">
-        <v>1.33153</v>
+        <v>0.006801000000000001</v>
       </c>
       <c r="N21">
-        <v>3.99459</v>
+        <v>0.020403</v>
       </c>
       <c r="O21">
-        <v>0.6432491360736359</v>
+        <v>0.004185491772204872</v>
       </c>
       <c r="P21">
-        <v>0.6432491360736358</v>
+        <v>0.004185491772204872</v>
       </c>
       <c r="Q21">
-        <v>0.4286488006600001</v>
+        <v>0.0008755471380000001</v>
       </c>
       <c r="R21">
-        <v>3.85783920594</v>
+        <v>0.007879924242</v>
       </c>
       <c r="S21">
-        <v>0.006386604918465256</v>
+        <v>2.109402736469051E-05</v>
       </c>
       <c r="T21">
-        <v>0.006386604918465256</v>
+        <v>2.109402736469051E-05</v>
       </c>
     </row>
     <row r="22" spans="1:20">
       <c r="A22" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B22" t="s">
         <v>26</v>
@@ -1774,7 +1774,7 @@
         <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E22">
         <v>3</v>
@@ -1783,51 +1783,51 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>0.321922</v>
+        <v>16.542033</v>
       </c>
       <c r="H22">
-        <v>0.9657660000000001</v>
+        <v>49.626099</v>
       </c>
       <c r="I22">
-        <v>0.009928664587796896</v>
+        <v>0.6475825499073805</v>
       </c>
       <c r="J22">
-        <v>0.009928664587796898</v>
+        <v>0.6475825499073804</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M22">
-        <v>0.01706533333333333</v>
+        <v>0.129309</v>
       </c>
       <c r="N22">
-        <v>0.051196</v>
+        <v>0.387927</v>
       </c>
       <c r="O22">
-        <v>0.008244095832219541</v>
+        <v>0.07957973174122036</v>
       </c>
       <c r="P22">
-        <v>0.00824409583221954</v>
+        <v>0.07957973174122038</v>
       </c>
       <c r="Q22">
-        <v>0.005493706237333334</v>
+        <v>2.139033745197</v>
       </c>
       <c r="R22">
-        <v>0.049443356136</v>
+        <v>19.251303706773</v>
       </c>
       <c r="S22">
-        <v>8.185286234776214E-05</v>
+        <v>0.05153444560192479</v>
       </c>
       <c r="T22">
-        <v>8.185286234776214E-05</v>
+        <v>0.05153444560192479</v>
       </c>
     </row>
     <row r="23" spans="1:20">
       <c r="A23" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B23" t="s">
         <v>26</v>
@@ -1836,7 +1836,7 @@
         <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E23">
         <v>3</v>
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>0.321922</v>
+        <v>16.542033</v>
       </c>
       <c r="H23">
-        <v>0.9657660000000001</v>
+        <v>49.626099</v>
       </c>
       <c r="I23">
-        <v>0.009928664587796896</v>
+        <v>0.6475825499073805</v>
       </c>
       <c r="J23">
-        <v>0.009928664587796898</v>
+        <v>0.6475825499073804</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,43 +1863,43 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>0.410595</v>
+        <v>1.33153</v>
       </c>
       <c r="N23">
-        <v>1.231785</v>
+        <v>3.99459</v>
       </c>
       <c r="O23">
-        <v>0.1983544336411155</v>
+        <v>0.8194541772451042</v>
       </c>
       <c r="P23">
-        <v>0.1983544336411154</v>
+        <v>0.8194541772451043</v>
       </c>
       <c r="Q23">
-        <v>0.13217956359</v>
+        <v>22.02621320049</v>
       </c>
       <c r="R23">
-        <v>1.18961607231</v>
+        <v>198.23591880441</v>
       </c>
       <c r="S23">
-        <v>0.001969394641125053</v>
+        <v>0.5306642256326392</v>
       </c>
       <c r="T23">
-        <v>0.001969394641125053</v>
+        <v>0.530664225632639</v>
       </c>
     </row>
     <row r="24" spans="1:20">
       <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
         <v>23</v>
       </c>
-      <c r="B24" t="s">
-        <v>26</v>
-      </c>
-      <c r="C24" t="s">
-        <v>27</v>
-      </c>
-      <c r="D24" t="s">
-        <v>24</v>
-      </c>
       <c r="E24">
         <v>3</v>
       </c>
@@ -1907,51 +1907,51 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>0.321922</v>
+        <v>16.542033</v>
       </c>
       <c r="H24">
-        <v>0.9657660000000001</v>
+        <v>49.626099</v>
       </c>
       <c r="I24">
-        <v>0.009928664587796896</v>
+        <v>0.6475825499073805</v>
       </c>
       <c r="J24">
-        <v>0.009928664587796898</v>
+        <v>0.6475825499073804</v>
       </c>
       <c r="K24">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L24">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M24">
-        <v>0.02875133333333333</v>
+        <v>0.1409186666666667</v>
       </c>
       <c r="N24">
-        <v>0.086254</v>
+        <v>0.422756</v>
       </c>
       <c r="O24">
-        <v>0.01388948827862068</v>
+        <v>0.0867245875435104</v>
       </c>
       <c r="P24">
-        <v>0.01388948827862068</v>
+        <v>0.08672458754351042</v>
       </c>
       <c r="Q24">
-        <v>0.009255686729333334</v>
+        <v>2.331081234316</v>
       </c>
       <c r="R24">
-        <v>0.083301180564</v>
+        <v>20.979731108844</v>
       </c>
       <c r="S24">
-        <v>0.0001379040704145613</v>
+        <v>0.05616132954109231</v>
       </c>
       <c r="T24">
-        <v>0.0001379040704145612</v>
+        <v>0.05616132954109232</v>
       </c>
     </row>
     <row r="25" spans="1:20">
       <c r="A25" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B25" t="s">
         <v>26</v>
@@ -1960,7 +1960,7 @@
         <v>27</v>
       </c>
       <c r="D25" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E25">
         <v>3</v>
@@ -1969,46 +1969,46 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>0.321922</v>
+        <v>16.542033</v>
       </c>
       <c r="H25">
-        <v>0.9657660000000001</v>
+        <v>49.626099</v>
       </c>
       <c r="I25">
-        <v>0.009928664587796896</v>
+        <v>0.6475825499073805</v>
       </c>
       <c r="J25">
-        <v>0.009928664587796898</v>
+        <v>0.6475825499073804</v>
       </c>
       <c r="K25">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L25">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M25">
-        <v>0.06844766666666667</v>
+        <v>0.01634</v>
       </c>
       <c r="N25">
-        <v>0.205343</v>
+        <v>0.04902</v>
       </c>
       <c r="O25">
-        <v>0.03306639914203175</v>
+        <v>0.01005601169796024</v>
       </c>
       <c r="P25">
-        <v>0.03306639914203174</v>
+        <v>0.01005601169796024</v>
       </c>
       <c r="Q25">
-        <v>0.02203480974866667</v>
+        <v>0.27029681922</v>
       </c>
       <c r="R25">
-        <v>0.198313287738</v>
+        <v>2.43267137298</v>
       </c>
       <c r="S25">
-        <v>0.0003283051862074483</v>
+        <v>0.006512097697263541</v>
       </c>
       <c r="T25">
-        <v>0.0003283051862074483</v>
+        <v>0.006512097697263541</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,7 +2022,7 @@
         <v>27</v>
       </c>
       <c r="D26" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E26">
         <v>3</v>
@@ -2031,51 +2031,51 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>13.22109733333333</v>
+        <v>16.542033</v>
       </c>
       <c r="H26">
-        <v>39.663292</v>
+        <v>49.626099</v>
       </c>
       <c r="I26">
-        <v>0.4077628770487342</v>
+        <v>0.6475825499073805</v>
       </c>
       <c r="J26">
-        <v>0.4077628770487343</v>
+        <v>0.6475825499073804</v>
       </c>
       <c r="K26">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L26">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M26">
-        <v>0.2136173333333334</v>
+        <v>0.006801000000000001</v>
       </c>
       <c r="N26">
-        <v>0.6408520000000001</v>
+        <v>0.020403</v>
       </c>
       <c r="O26">
-        <v>0.1031964470323767</v>
+        <v>0.004185491772204872</v>
       </c>
       <c r="P26">
-        <v>0.1031964470323767</v>
+        <v>0.004185491772204872</v>
       </c>
       <c r="Q26">
-        <v>2.824255556087111</v>
+        <v>0.112502366433</v>
       </c>
       <c r="R26">
-        <v>25.418300004784</v>
+        <v>1.012521297897</v>
       </c>
       <c r="S26">
-        <v>0.04207968014312924</v>
+        <v>0.002710451434460792</v>
       </c>
       <c r="T26">
-        <v>0.04207968014312925</v>
+        <v>0.002710451434460792</v>
       </c>
     </row>
     <row r="27" spans="1:20">
       <c r="A27" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B27" t="s">
         <v>26</v>
@@ -2084,7 +2084,7 @@
         <v>27</v>
       </c>
       <c r="D27" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E27">
         <v>3</v>
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>13.22109733333333</v>
+        <v>1.614436666666667</v>
       </c>
       <c r="H27">
-        <v>39.663292</v>
+        <v>4.84331</v>
       </c>
       <c r="I27">
-        <v>0.4077628770487342</v>
+        <v>0.06320148274785642</v>
       </c>
       <c r="J27">
-        <v>0.4077628770487343</v>
+        <v>0.06320148274785641</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2111,33 +2111,33 @@
         <v>1</v>
       </c>
       <c r="M27">
-        <v>1.33153</v>
+        <v>0.129309</v>
       </c>
       <c r="N27">
-        <v>3.99459</v>
+        <v>0.387927</v>
       </c>
       <c r="O27">
-        <v>0.6432491360736359</v>
+        <v>0.07957973174122036</v>
       </c>
       <c r="P27">
-        <v>0.6432491360736358</v>
+        <v>0.07957973174122038</v>
       </c>
       <c r="Q27">
-        <v>17.60428773225333</v>
+        <v>0.20876119093</v>
       </c>
       <c r="R27">
-        <v>158.43858959028</v>
+        <v>1.87885071837</v>
       </c>
       <c r="S27">
-        <v>0.2622931183844985</v>
+        <v>0.005029557042721781</v>
       </c>
       <c r="T27">
-        <v>0.2622931183844985</v>
+        <v>0.005029557042721781</v>
       </c>
     </row>
     <row r="28" spans="1:20">
       <c r="A28" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B28" t="s">
         <v>26</v>
@@ -2146,7 +2146,7 @@
         <v>27</v>
       </c>
       <c r="D28" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E28">
         <v>3</v>
@@ -2155,51 +2155,51 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>13.22109733333333</v>
+        <v>1.614436666666667</v>
       </c>
       <c r="H28">
-        <v>39.663292</v>
+        <v>4.84331</v>
       </c>
       <c r="I28">
-        <v>0.4077628770487342</v>
+        <v>0.06320148274785642</v>
       </c>
       <c r="J28">
-        <v>0.4077628770487343</v>
+        <v>0.06320148274785641</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M28">
-        <v>0.01706533333333333</v>
+        <v>1.33153</v>
       </c>
       <c r="N28">
-        <v>0.051196</v>
+        <v>3.99459</v>
       </c>
       <c r="O28">
-        <v>0.008244095832219541</v>
+        <v>0.8194541772451042</v>
       </c>
       <c r="P28">
-        <v>0.00824409583221954</v>
+        <v>0.8194541772451043</v>
       </c>
       <c r="Q28">
-        <v>0.2256224330257778</v>
+        <v>2.149670854766667</v>
       </c>
       <c r="R28">
-        <v>2.030601897232</v>
+        <v>19.3470376929</v>
       </c>
       <c r="S28">
-        <v>0.003361636235211319</v>
+        <v>0.05179071904581533</v>
       </c>
       <c r="T28">
-        <v>0.003361636235211319</v>
+        <v>0.05179071904581532</v>
       </c>
     </row>
     <row r="29" spans="1:20">
       <c r="A29" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B29" t="s">
         <v>26</v>
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>13.22109733333333</v>
+        <v>1.614436666666667</v>
       </c>
       <c r="H29">
-        <v>39.663292</v>
+        <v>4.84331</v>
       </c>
       <c r="I29">
-        <v>0.4077628770487342</v>
+        <v>0.06320148274785642</v>
       </c>
       <c r="J29">
-        <v>0.4077628770487343</v>
+        <v>0.06320148274785641</v>
       </c>
       <c r="K29">
         <v>3</v>
@@ -2235,33 +2235,33 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>0.410595</v>
+        <v>0.1409186666666667</v>
       </c>
       <c r="N29">
-        <v>1.231785</v>
+        <v>0.422756</v>
       </c>
       <c r="O29">
-        <v>0.1983544336411155</v>
+        <v>0.0867245875435104</v>
       </c>
       <c r="P29">
-        <v>0.1983544336411154</v>
+        <v>0.08672458754351042</v>
       </c>
       <c r="Q29">
-        <v>5.42851645958</v>
+        <v>0.2275042624844444</v>
       </c>
       <c r="R29">
-        <v>48.85664813622</v>
+        <v>2.04753836236</v>
       </c>
       <c r="S29">
-        <v>0.08088157453687349</v>
+        <v>0.005481122523446136</v>
       </c>
       <c r="T29">
-        <v>0.08088157453687349</v>
+        <v>0.005481122523446137</v>
       </c>
     </row>
     <row r="30" spans="1:20">
       <c r="A30" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B30" t="s">
         <v>26</v>
@@ -2279,51 +2279,51 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>13.22109733333333</v>
+        <v>1.614436666666667</v>
       </c>
       <c r="H30">
-        <v>39.663292</v>
+        <v>4.84331</v>
       </c>
       <c r="I30">
-        <v>0.4077628770487342</v>
+        <v>0.06320148274785642</v>
       </c>
       <c r="J30">
-        <v>0.4077628770487343</v>
+        <v>0.06320148274785641</v>
       </c>
       <c r="K30">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L30">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M30">
-        <v>0.02875133333333333</v>
+        <v>0.01634</v>
       </c>
       <c r="N30">
-        <v>0.086254</v>
+        <v>0.04902</v>
       </c>
       <c r="O30">
-        <v>0.01388948827862068</v>
+        <v>0.01005601169796024</v>
       </c>
       <c r="P30">
-        <v>0.01388948827862068</v>
+        <v>0.01005601169796024</v>
       </c>
       <c r="Q30">
-        <v>0.3801241764631111</v>
+        <v>0.02637989513333333</v>
       </c>
       <c r="R30">
-        <v>3.421117588168</v>
+        <v>0.2374190562</v>
       </c>
       <c r="S30">
-        <v>0.00566361770122504</v>
+        <v>0.0006355548498408766</v>
       </c>
       <c r="T30">
-        <v>0.00566361770122504</v>
+        <v>0.0006355548498408766</v>
       </c>
     </row>
     <row r="31" spans="1:20">
       <c r="A31" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B31" t="s">
         <v>26</v>
@@ -2341,418 +2341,46 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>13.22109733333333</v>
+        <v>1.614436666666667</v>
       </c>
       <c r="H31">
-        <v>39.663292</v>
+        <v>4.84331</v>
       </c>
       <c r="I31">
-        <v>0.4077628770487342</v>
+        <v>0.06320148274785642</v>
       </c>
       <c r="J31">
-        <v>0.4077628770487343</v>
+        <v>0.06320148274785641</v>
       </c>
       <c r="K31">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L31">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M31">
-        <v>0.06844766666666667</v>
+        <v>0.006801000000000001</v>
       </c>
       <c r="N31">
-        <v>0.205343</v>
+        <v>0.020403</v>
       </c>
       <c r="O31">
-        <v>0.03306639914203175</v>
+        <v>0.004185491772204872</v>
       </c>
       <c r="P31">
-        <v>0.03306639914203174</v>
+        <v>0.004185491772204872</v>
       </c>
       <c r="Q31">
-        <v>0.9049532632395556</v>
+        <v>0.01097978377</v>
       </c>
       <c r="R31">
-        <v>8.144579369156</v>
+        <v>0.09881805393</v>
       </c>
       <c r="S31">
-        <v>0.01348325004779666</v>
+        <v>0.0002645292860323013</v>
       </c>
       <c r="T31">
-        <v>0.01348325004779666</v>
-      </c>
-    </row>
-    <row r="32" spans="1:20">
-      <c r="A32" t="s">
-        <v>25</v>
-      </c>
-      <c r="B32" t="s">
-        <v>26</v>
-      </c>
-      <c r="C32" t="s">
-        <v>27</v>
-      </c>
-      <c r="D32" t="s">
-        <v>20</v>
-      </c>
-      <c r="E32">
-        <v>3</v>
-      </c>
-      <c r="F32">
-        <v>1</v>
-      </c>
-      <c r="G32">
-        <v>9.507065666666666</v>
-      </c>
-      <c r="H32">
-        <v>28.521197</v>
-      </c>
-      <c r="I32">
-        <v>0.293215332342906</v>
-      </c>
-      <c r="J32">
-        <v>0.2932153323429061</v>
-      </c>
-      <c r="K32">
-        <v>3</v>
-      </c>
-      <c r="L32">
-        <v>1</v>
-      </c>
-      <c r="M32">
-        <v>0.2136173333333334</v>
-      </c>
-      <c r="N32">
-        <v>0.6408520000000001</v>
-      </c>
-      <c r="O32">
-        <v>0.1031964470323767</v>
-      </c>
-      <c r="P32">
-        <v>0.1031964470323767</v>
-      </c>
-      <c r="Q32">
-        <v>2.030874015538222</v>
-      </c>
-      <c r="R32">
-        <v>18.277866139844</v>
-      </c>
-      <c r="S32">
-        <v>0.03025878051320544</v>
-      </c>
-      <c r="T32">
-        <v>0.03025878051320544</v>
-      </c>
-    </row>
-    <row r="33" spans="1:20">
-      <c r="A33" t="s">
-        <v>25</v>
-      </c>
-      <c r="B33" t="s">
-        <v>26</v>
-      </c>
-      <c r="C33" t="s">
-        <v>27</v>
-      </c>
-      <c r="D33" t="s">
-        <v>21</v>
-      </c>
-      <c r="E33">
-        <v>3</v>
-      </c>
-      <c r="F33">
-        <v>1</v>
-      </c>
-      <c r="G33">
-        <v>9.507065666666666</v>
-      </c>
-      <c r="H33">
-        <v>28.521197</v>
-      </c>
-      <c r="I33">
-        <v>0.293215332342906</v>
-      </c>
-      <c r="J33">
-        <v>0.2932153323429061</v>
-      </c>
-      <c r="K33">
-        <v>3</v>
-      </c>
-      <c r="L33">
-        <v>1</v>
-      </c>
-      <c r="M33">
-        <v>1.33153</v>
-      </c>
-      <c r="N33">
-        <v>3.99459</v>
-      </c>
-      <c r="O33">
-        <v>0.6432491360736359</v>
-      </c>
-      <c r="P33">
-        <v>0.6432491360736358</v>
-      </c>
-      <c r="Q33">
-        <v>12.65894314713667</v>
-      </c>
-      <c r="R33">
-        <v>113.93048832423</v>
-      </c>
-      <c r="S33">
-        <v>0.1886105092131183</v>
-      </c>
-      <c r="T33">
-        <v>0.1886105092131183</v>
-      </c>
-    </row>
-    <row r="34" spans="1:20">
-      <c r="A34" t="s">
-        <v>25</v>
-      </c>
-      <c r="B34" t="s">
-        <v>26</v>
-      </c>
-      <c r="C34" t="s">
-        <v>27</v>
-      </c>
-      <c r="D34" t="s">
-        <v>22</v>
-      </c>
-      <c r="E34">
-        <v>3</v>
-      </c>
-      <c r="F34">
-        <v>1</v>
-      </c>
-      <c r="G34">
-        <v>9.507065666666666</v>
-      </c>
-      <c r="H34">
-        <v>28.521197</v>
-      </c>
-      <c r="I34">
-        <v>0.293215332342906</v>
-      </c>
-      <c r="J34">
-        <v>0.2932153323429061</v>
-      </c>
-      <c r="K34">
-        <v>1</v>
-      </c>
-      <c r="L34">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M34">
-        <v>0.01706533333333333</v>
-      </c>
-      <c r="N34">
-        <v>0.051196</v>
-      </c>
-      <c r="O34">
-        <v>0.008244095832219541</v>
-      </c>
-      <c r="P34">
-        <v>0.00824409583221954</v>
-      </c>
-      <c r="Q34">
-        <v>0.1622412446235555</v>
-      </c>
-      <c r="R34">
-        <v>1.460171201612</v>
-      </c>
-      <c r="S34">
-        <v>0.002417295299311019</v>
-      </c>
-      <c r="T34">
-        <v>0.002417295299311019</v>
-      </c>
-    </row>
-    <row r="35" spans="1:20">
-      <c r="A35" t="s">
-        <v>25</v>
-      </c>
-      <c r="B35" t="s">
-        <v>26</v>
-      </c>
-      <c r="C35" t="s">
-        <v>27</v>
-      </c>
-      <c r="D35" t="s">
-        <v>23</v>
-      </c>
-      <c r="E35">
-        <v>3</v>
-      </c>
-      <c r="F35">
-        <v>1</v>
-      </c>
-      <c r="G35">
-        <v>9.507065666666666</v>
-      </c>
-      <c r="H35">
-        <v>28.521197</v>
-      </c>
-      <c r="I35">
-        <v>0.293215332342906</v>
-      </c>
-      <c r="J35">
-        <v>0.2932153323429061</v>
-      </c>
-      <c r="K35">
-        <v>3</v>
-      </c>
-      <c r="L35">
-        <v>1</v>
-      </c>
-      <c r="M35">
-        <v>0.410595</v>
-      </c>
-      <c r="N35">
-        <v>1.231785</v>
-      </c>
-      <c r="O35">
-        <v>0.1983544336411155</v>
-      </c>
-      <c r="P35">
-        <v>0.1983544336411154</v>
-      </c>
-      <c r="Q35">
-        <v>3.903553627405</v>
-      </c>
-      <c r="R35">
-        <v>35.13198264664499</v>
-      </c>
-      <c r="S35">
-        <v>0.05816056118176858</v>
-      </c>
-      <c r="T35">
-        <v>0.05816056118176857</v>
-      </c>
-    </row>
-    <row r="36" spans="1:20">
-      <c r="A36" t="s">
-        <v>25</v>
-      </c>
-      <c r="B36" t="s">
-        <v>26</v>
-      </c>
-      <c r="C36" t="s">
-        <v>27</v>
-      </c>
-      <c r="D36" t="s">
-        <v>24</v>
-      </c>
-      <c r="E36">
-        <v>3</v>
-      </c>
-      <c r="F36">
-        <v>1</v>
-      </c>
-      <c r="G36">
-        <v>9.507065666666666</v>
-      </c>
-      <c r="H36">
-        <v>28.521197</v>
-      </c>
-      <c r="I36">
-        <v>0.293215332342906</v>
-      </c>
-      <c r="J36">
-        <v>0.2932153323429061</v>
-      </c>
-      <c r="K36">
-        <v>2</v>
-      </c>
-      <c r="L36">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M36">
-        <v>0.02875133333333333</v>
-      </c>
-      <c r="N36">
-        <v>0.086254</v>
-      </c>
-      <c r="O36">
-        <v>0.01388948827862068</v>
-      </c>
-      <c r="P36">
-        <v>0.01388948827862068</v>
-      </c>
-      <c r="Q36">
-        <v>0.2733408140042222</v>
-      </c>
-      <c r="R36">
-        <v>2.460067326038</v>
-      </c>
-      <c r="S36">
-        <v>0.004072610921688661</v>
-      </c>
-      <c r="T36">
-        <v>0.004072610921688661</v>
-      </c>
-    </row>
-    <row r="37" spans="1:20">
-      <c r="A37" t="s">
-        <v>25</v>
-      </c>
-      <c r="B37" t="s">
-        <v>26</v>
-      </c>
-      <c r="C37" t="s">
-        <v>27</v>
-      </c>
-      <c r="D37" t="s">
-        <v>25</v>
-      </c>
-      <c r="E37">
-        <v>3</v>
-      </c>
-      <c r="F37">
-        <v>1</v>
-      </c>
-      <c r="G37">
-        <v>9.507065666666666</v>
-      </c>
-      <c r="H37">
-        <v>28.521197</v>
-      </c>
-      <c r="I37">
-        <v>0.293215332342906</v>
-      </c>
-      <c r="J37">
-        <v>0.2932153323429061</v>
-      </c>
-      <c r="K37">
-        <v>3</v>
-      </c>
-      <c r="L37">
-        <v>1</v>
-      </c>
-      <c r="M37">
-        <v>0.06844766666666667</v>
-      </c>
-      <c r="N37">
-        <v>0.205343</v>
-      </c>
-      <c r="O37">
-        <v>0.03306639914203175</v>
-      </c>
-      <c r="P37">
-        <v>0.03306639914203174</v>
-      </c>
-      <c r="Q37">
-        <v>0.6507364617301111</v>
-      </c>
-      <c r="R37">
-        <v>5.856628155570999</v>
-      </c>
-      <c r="S37">
-        <v>0.009695575213814023</v>
-      </c>
-      <c r="T37">
-        <v>0.009695575213814022</v>
+        <v>0.0002645292860323012</v>
       </c>
     </row>
   </sheetData>
